--- a/LISTA.xlsx
+++ b/LISTA.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\WSP redireccion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\wh_forwarder_bot_deploy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF82B29-B5CA-47A4-B911-121F650E6ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41140FF7-7365-4639-AE01-EE50AC724C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{CE599296-2E25-4F1F-86C4-24E6F44232D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="42">
   <si>
     <t>TKS EQUIPOS R3,R4 ARA</t>
   </si>
@@ -159,6 +160,12 @@
   </si>
   <si>
     <t>INFLUMAX R11</t>
+  </si>
+  <si>
+    <t>Ida-ida</t>
+  </si>
+  <si>
+    <t>Vuelta Vuelta</t>
   </si>
 </sst>
 </file>
@@ -228,11 +235,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA9C221-6E86-4922-B91A-239A64150599}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F22" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,6 +1015,375 @@
         <v>17</v>
       </c>
     </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C2F8DE-DF86-414D-8DCE-6C3C65FA360D}">
+  <dimension ref="D2:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LISTA.xlsx
+++ b/LISTA.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="42">
   <si>
     <t>Grupo_Origen</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Prioridad: ALTA</t>
   </si>
   <si>
-    <t>Coordinador:COORDINADOR ZONA 4.4</t>
+    <t>Coordinador: COORDINADOR ZONA 4.4</t>
   </si>
   <si>
     <t>Diactec R11</t>
@@ -154,9 +154,6 @@
   </si>
   <si>
     <t>Vuelta Vuelta</t>
-  </si>
-  <si>
-    <t>Coordinador: COORDINADOR ZONA 4.4</t>
   </si>
 </sst>
 </file>
@@ -169,7 +166,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,13 +176,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -666,148 +656,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1158,11 +1148,11 @@
   <sheetPr/>
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:E37"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="21.8583333333333" customWidth="1"/>
     <col min="2" max="2" width="32.8583333333333" customWidth="1"/>
@@ -1171,7 +1161,7 @@
     <col min="5" max="5" width="35.1416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" ht="15" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1797,7 +1787,7 @@
         <v>29</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1849,7 +1839,7 @@
       <selection activeCell="D3" sqref="D3:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <sheetData>
     <row r="2" spans="4:5">
       <c r="D2" s="1"/>

--- a/LISTA.xlsx
+++ b/LISTA.xlsx
@@ -57,7 +57,7 @@
     <t>Prioridad: ALTA</t>
   </si>
   <si>
-    <t>Coordinador: COORDINADOR ZONA 4.4</t>
+    <t>Coordinador:COORDINADOR ZONA 4.4</t>
   </si>
   <si>
     <t>Diactec R11</t>
@@ -72,7 +72,7 @@
     <t>WESTON</t>
   </si>
   <si>
-    <t>Coordinador: COORDINADOR ZONA 4.5</t>
+    <t>Coordinador:COORDINADOR ZONA 4.5</t>
   </si>
   <si>
     <t>R11 Movimiento plantas</t>
@@ -1148,8 +1148,8 @@
   <sheetPr/>
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="4"/>

--- a/LISTA.xlsx
+++ b/LISTA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19035" windowHeight="7500"/>
+    <workbookView windowWidth="19035" windowHeight="6780"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
     <t>Prioridad: ALTA</t>
   </si>
   <si>
-    <t>Coordinador:COORDINADOR ZONA 4.4</t>
+    <t>COORDINADOR ZONA 4.4</t>
   </si>
   <si>
     <t>Diactec R11</t>
@@ -72,7 +72,7 @@
     <t>WESTON</t>
   </si>
   <si>
-    <t>Coordinador:COORDINADOR ZONA 4.5</t>
+    <t>COORDINADOR ZONA 4.5</t>
   </si>
   <si>
     <t>R11 Movimiento plantas</t>
@@ -1148,8 +1148,8 @@
   <sheetPr/>
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F2" sqref="F$1:F$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1159,6 +1159,7 @@
     <col min="3" max="3" width="12.7083333333333" customWidth="1"/>
     <col min="4" max="4" width="14.425" customWidth="1"/>
     <col min="5" max="5" width="35.1416666666667" customWidth="1"/>
+    <col min="6" max="6" width="25.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:5">
